--- a/medicine/Pharmacie/Mallinckrodt/Mallinckrodt.xlsx
+++ b/medicine/Pharmacie/Mallinckrodt/Mallinckrodt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mallinckrodt est une entreprise de produit pharmaceutique basée à Dublin en Irlande. 
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise est issue de la scission de Covidien, opération annoncée en 2011 et finalisé en 2013. 
-En février 2014, Mallinckrodt acquiert Cadence Pharmaceuticals pour 1,3 milliard de dollars[1]. En avril 2014, Mallinckrodt acquiert Questcor Pharma  pour 5,6 milliards de dollars[1].
-En mars 2015, Mallinckrodt acquiert Ikaria, spécialisée dans les maladies respiratoires, pour 2,3 milliards de dollars[2]. En août 2015, Mallinckrodt acquiert Therakos, spécialisée contre le cancer de la peau et les insuffisances respiratoires, pour 1,33 milliard de dollars[3].
-En décembre 2017, Mallinckrodt annonce l'acquisition de Sucampo, spécialisée notamment dans les maladies génériques rares, pour 840 millions de dollars[4].
+En février 2014, Mallinckrodt acquiert Cadence Pharmaceuticals pour 1,3 milliard de dollars. En avril 2014, Mallinckrodt acquiert Questcor Pharma  pour 5,6 milliards de dollars.
+En mars 2015, Mallinckrodt acquiert Ikaria, spécialisée dans les maladies respiratoires, pour 2,3 milliards de dollars. En août 2015, Mallinckrodt acquiert Therakos, spécialisée contre le cancer de la peau et les insuffisances respiratoires, pour 1,33 milliard de dollars.
+En décembre 2017, Mallinckrodt annonce l'acquisition de Sucampo, spécialisée notamment dans les maladies génériques rares, pour 840 millions de dollars.
 </t>
         </is>
       </c>
